--- a/PLATINUM_ok+good_130901_A+B+C.xlsx
+++ b/PLATINUM_ok+good_130901_A+B+C.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
-  <workbookPr/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chaiyong/Documents/StackoverflowChecker/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="27000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="27000" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="GOLD_ok+good_130901_A+B+C" sheetId="1" r:id="rId1"/>
@@ -6242,7 +6242,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -6278,6 +6278,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -6660,8 +6661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB480"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="Q94" sqref="Q94"/>
+    <sheetView topLeftCell="A412" workbookViewId="0">
+      <selection activeCell="O86" sqref="O86:O455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11385,6 +11386,7 @@
       <c r="L85" s="9"/>
       <c r="M85" s="9"/>
       <c r="N85" s="9"/>
+      <c r="O85" s="17"/>
       <c r="U85" s="9"/>
       <c r="V85" s="9"/>
       <c r="W85" s="9"/>
@@ -29765,8 +29767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/PLATINUM_ok+good_130901_A+B+C.xlsx
+++ b/PLATINUM_ok+good_130901_A+B+C.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="27000" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="27000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="GOLD_ok+good_130901_A+B+C" sheetId="1" r:id="rId1"/>
@@ -6242,7 +6242,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -6257,9 +6257,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -6268,9 +6265,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6279,6 +6273,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -6661,8 +6679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB480"/>
   <sheetViews>
-    <sheetView topLeftCell="A412" workbookViewId="0">
-      <selection activeCell="O86" sqref="O86:O455"/>
+    <sheetView tabSelected="1" topLeftCell="Q51" workbookViewId="0">
+      <selection activeCell="Z53" sqref="Z53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6676,11 +6694,11 @@
     <col min="16" max="18" width="10.6640625" style="1" customWidth="1"/>
     <col min="19" max="20" width="10.83203125" style="1" customWidth="1"/>
     <col min="21" max="21" width="10.83203125" style="1"/>
-    <col min="22" max="22" width="69.5" style="1" customWidth="1"/>
-    <col min="23" max="23" width="84.6640625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="10.6640625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="11.33203125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="251.33203125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="93.5" style="6" customWidth="1"/>
+    <col min="23" max="23" width="84.6640625" style="6" customWidth="1"/>
+    <col min="24" max="24" width="10.6640625" style="6" customWidth="1"/>
+    <col min="25" max="25" width="11.33203125" style="6" customWidth="1"/>
+    <col min="26" max="26" width="251.33203125" style="6" customWidth="1"/>
     <col min="27" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -6721,14 +6739,14 @@
       <c r="U1" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="X1" s="5">
+      <c r="X1" s="16">
         <v>40742</v>
       </c>
-      <c r="Y1" s="5">
+      <c r="Y1" s="16">
         <v>40081</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" ht="336" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -6762,25 +6780,25 @@
       <c r="U2" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="V2" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="W2" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="X2" s="5">
+      <c r="X2" s="16">
         <v>40918</v>
       </c>
-      <c r="Y2" s="5">
+      <c r="Y2" s="16">
         <v>41193</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="Z2" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+    </row>
+    <row r="3" spans="1:28" ht="240" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -6820,23 +6838,23 @@
       <c r="U3" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="V3" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="W3" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="X3" s="5">
+      <c r="X3" s="16">
         <v>40614</v>
       </c>
-      <c r="Y3" s="5">
+      <c r="Y3" s="16">
         <v>40394</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="Z3" s="6" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" ht="112" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -6873,23 +6891,23 @@
       <c r="U4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="V4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="W4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="X4" s="5">
+      <c r="X4" s="16">
         <v>41504</v>
       </c>
-      <c r="Y4" s="5">
+      <c r="Y4" s="16">
         <v>39512</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="Z4" s="6" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" ht="112" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -6926,23 +6944,23 @@
       <c r="U5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="V5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="W5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="X5" s="5">
+      <c r="X5" s="16">
         <v>41504</v>
       </c>
-      <c r="Y5" s="5">
+      <c r="Y5" s="16">
         <v>39512</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="Z5" s="6" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" ht="256" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -6997,23 +7015,23 @@
       <c r="U6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="V6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="W6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="X6" s="5">
+      <c r="X6" s="16">
         <v>41709</v>
       </c>
-      <c r="Y6" s="5">
+      <c r="Y6" s="16">
         <v>40892</v>
       </c>
-      <c r="Z6" s="1" t="s">
+      <c r="Z6" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" ht="272" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -7047,23 +7065,23 @@
       <c r="U7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="V7" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="W7" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="X7" s="5">
+      <c r="X7" s="16">
         <v>39932</v>
       </c>
-      <c r="Y7" s="5">
+      <c r="Y7" s="16">
         <v>40892</v>
       </c>
-      <c r="Z7" s="1" t="s">
+      <c r="Z7" s="6" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" ht="409" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -7100,23 +7118,23 @@
       <c r="U8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="V8" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="W8" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="X8" s="5">
+      <c r="X8" s="16">
         <v>41681</v>
       </c>
-      <c r="Y8" s="5">
+      <c r="Y8" s="16">
         <v>40892</v>
       </c>
-      <c r="Z8" s="1" t="s">
+      <c r="Z8" s="6" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" ht="409" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -7150,23 +7168,23 @@
       <c r="U9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="V9" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="W9" s="1" t="s">
+      <c r="W9" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="X9" s="5">
+      <c r="X9" s="16">
         <v>41681</v>
       </c>
-      <c r="Y9" s="5">
+      <c r="Y9" s="16">
         <v>40892</v>
       </c>
-      <c r="Z9" s="1" t="s">
+      <c r="Z9" s="6" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" ht="409" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -7203,23 +7221,23 @@
       <c r="U10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="V10" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="W10" s="1" t="s">
+      <c r="W10" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="X10" s="5">
+      <c r="X10" s="16">
         <v>41388</v>
       </c>
-      <c r="Y10" s="5">
+      <c r="Y10" s="16">
         <v>40892</v>
       </c>
-      <c r="Z10" s="1" t="s">
+      <c r="Z10" s="6" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" ht="409" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -7256,23 +7274,23 @@
       <c r="U11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="V11" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="W11" s="1" t="s">
+      <c r="W11" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="X11" s="5">
+      <c r="X11" s="16">
         <v>41318</v>
       </c>
-      <c r="Y11" s="5">
+      <c r="Y11" s="16">
         <v>40892</v>
       </c>
-      <c r="Z11" s="1" t="s">
+      <c r="Z11" s="6" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" ht="409" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -7309,23 +7327,23 @@
       <c r="U12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V12" s="1" t="s">
+      <c r="V12" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="W12" s="1" t="s">
+      <c r="W12" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="X12" s="5">
+      <c r="X12" s="16">
         <v>41388</v>
       </c>
-      <c r="Y12" s="5">
+      <c r="Y12" s="16">
         <v>40892</v>
       </c>
-      <c r="Z12" s="1" t="s">
+      <c r="Z12" s="6" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" ht="409" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -7362,23 +7380,23 @@
       <c r="U13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="V13" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="W13" s="1" t="s">
+      <c r="W13" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="X13" s="5">
+      <c r="X13" s="16">
         <v>41429</v>
       </c>
-      <c r="Y13" s="5">
+      <c r="Y13" s="16">
         <v>40892</v>
       </c>
-      <c r="Z13" s="1" t="s">
+      <c r="Z13" s="6" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" ht="240" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -7433,23 +7451,23 @@
       <c r="U14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V14" s="1" t="s">
+      <c r="V14" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="W14" s="1" t="s">
+      <c r="W14" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="X14" s="5">
+      <c r="X14" s="16">
         <v>41533</v>
       </c>
-      <c r="Y14" s="5">
+      <c r="Y14" s="16">
         <v>40892</v>
       </c>
-      <c r="Z14" s="1" t="s">
+      <c r="Z14" s="6" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" ht="409" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -7483,23 +7501,23 @@
       <c r="U15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V15" s="1" t="s">
+      <c r="V15" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="W15" s="1" t="s">
+      <c r="W15" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="X15" s="5">
+      <c r="X15" s="16">
         <v>41844</v>
       </c>
-      <c r="Y15" s="5">
+      <c r="Y15" s="16">
         <v>41416</v>
       </c>
-      <c r="Z15" s="1" t="s">
+      <c r="Z15" s="6" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" ht="409" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -7533,23 +7551,23 @@
       <c r="U16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V16" s="1" t="s">
+      <c r="V16" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="W16" s="1" t="s">
+      <c r="W16" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="X16" s="5">
+      <c r="X16" s="16">
         <v>41790</v>
       </c>
-      <c r="Y16" s="5">
+      <c r="Y16" s="16">
         <v>41416</v>
       </c>
-      <c r="Z16" s="1" t="s">
+      <c r="Z16" s="6" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" ht="409" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -7583,23 +7601,23 @@
       <c r="U17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V17" s="1" t="s">
+      <c r="V17" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="W17" s="1" t="s">
+      <c r="W17" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="X17" s="5">
+      <c r="X17" s="16">
         <v>41694</v>
       </c>
-      <c r="Y17" s="5">
+      <c r="Y17" s="16">
         <v>41416</v>
       </c>
-      <c r="Z17" s="1" t="s">
+      <c r="Z17" s="6" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" ht="409" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -7633,23 +7651,23 @@
       <c r="U18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V18" s="1" t="s">
+      <c r="V18" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="W18" s="1" t="s">
+      <c r="W18" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="X18" s="5">
+      <c r="X18" s="16">
         <v>41767</v>
       </c>
-      <c r="Y18" s="5">
+      <c r="Y18" s="16">
         <v>41416</v>
       </c>
-      <c r="Z18" s="1" t="s">
+      <c r="Z18" s="6" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="400" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -7686,23 +7704,23 @@
       <c r="U19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V19" s="1" t="s">
+      <c r="V19" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="W19" s="1" t="s">
+      <c r="W19" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="X19" s="5">
+      <c r="X19" s="16">
         <v>40854</v>
       </c>
-      <c r="Y19" s="5">
+      <c r="Y19" s="16">
         <v>40329</v>
       </c>
-      <c r="Z19" s="1" t="s">
+      <c r="Z19" s="6" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="409" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -7736,23 +7754,23 @@
       <c r="U20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V20" s="1" t="s">
+      <c r="V20" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="W20" s="1" t="s">
+      <c r="W20" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="X20" s="5">
+      <c r="X20" s="16">
         <v>41694</v>
       </c>
-      <c r="Y20" s="5">
+      <c r="Y20" s="16">
         <v>39923</v>
       </c>
-      <c r="Z20" s="1" t="s">
+      <c r="Z20" s="6" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="409" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -7789,23 +7807,23 @@
       <c r="U21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V21" s="1" t="s">
+      <c r="V21" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="W21" s="1" t="s">
+      <c r="W21" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="X21" s="5">
+      <c r="X21" s="16">
         <v>41694</v>
       </c>
-      <c r="Y21" s="5">
+      <c r="Y21" s="16">
         <v>39923</v>
       </c>
-      <c r="Z21" s="1" t="s">
+      <c r="Z21" s="6" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="409" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -7839,23 +7857,23 @@
       <c r="U22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V22" s="1" t="s">
+      <c r="V22" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="W22" s="1" t="s">
+      <c r="W22" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="X22" s="5">
+      <c r="X22" s="16">
         <v>41199</v>
       </c>
-      <c r="Y22" s="5">
+      <c r="Y22" s="16">
         <v>39923</v>
       </c>
-      <c r="Z22" s="1" t="s">
+      <c r="Z22" s="6" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="400" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -7892,23 +7910,23 @@
       <c r="U23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V23" s="1" t="s">
+      <c r="V23" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="W23" s="1" t="s">
+      <c r="W23" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="X23" s="5">
+      <c r="X23" s="16">
         <v>41381</v>
       </c>
-      <c r="Y23" s="5">
+      <c r="Y23" s="16">
         <v>39923</v>
       </c>
-      <c r="Z23" s="1" t="s">
+      <c r="Z23" s="6" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="409" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
@@ -7945,23 +7963,23 @@
       <c r="U24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V24" s="1" t="s">
+      <c r="V24" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="W24" s="1" t="s">
+      <c r="W24" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="X24" s="5">
+      <c r="X24" s="16">
         <v>40742</v>
       </c>
-      <c r="Y24" s="5">
+      <c r="Y24" s="16">
         <v>40081</v>
       </c>
-      <c r="Z24" s="1" t="s">
+      <c r="Z24" s="6" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="409" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>110</v>
       </c>
@@ -8016,23 +8034,23 @@
       <c r="U25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V25" s="1" t="s">
+      <c r="V25" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="W25" s="1" t="s">
+      <c r="W25" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="X25" s="5">
+      <c r="X25" s="16">
         <v>40742</v>
       </c>
-      <c r="Y25" s="5">
+      <c r="Y25" s="16">
         <v>40081</v>
       </c>
-      <c r="Z25" s="1" t="s">
+      <c r="Z25" s="6" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="409" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>110</v>
       </c>
@@ -8087,23 +8105,23 @@
       <c r="U26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V26" s="1" t="s">
+      <c r="V26" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="W26" s="1" t="s">
+      <c r="W26" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="X26" s="5">
+      <c r="X26" s="16">
         <v>40742</v>
       </c>
-      <c r="Y26" s="5">
+      <c r="Y26" s="16">
         <v>40081</v>
       </c>
-      <c r="Z26" s="1" t="s">
+      <c r="Z26" s="6" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="409" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>110</v>
       </c>
@@ -8158,23 +8176,23 @@
       <c r="U27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V27" s="1" t="s">
+      <c r="V27" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="W27" s="1" t="s">
+      <c r="W27" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="X27" s="5">
+      <c r="X27" s="16">
         <v>40742</v>
       </c>
-      <c r="Y27" s="5">
+      <c r="Y27" s="16">
         <v>40081</v>
       </c>
-      <c r="Z27" s="1" t="s">
+      <c r="Z27" s="6" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="384" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -8208,23 +8226,23 @@
       <c r="U28" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V28" s="1" t="s">
+      <c r="V28" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="W28" s="1" t="s">
+      <c r="W28" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="X28" s="5">
+      <c r="X28" s="16">
         <v>41769</v>
       </c>
-      <c r="Y28" s="5">
+      <c r="Y28" s="16">
         <v>41193</v>
       </c>
-      <c r="Z28" s="1" t="s">
+      <c r="Z28" s="6" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="409" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -8258,23 +8276,23 @@
       <c r="U29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V29" s="1" t="s">
+      <c r="V29" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="W29" s="1" t="s">
+      <c r="W29" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="X29" s="5">
+      <c r="X29" s="16">
         <v>40815</v>
       </c>
-      <c r="Y29" s="5">
+      <c r="Y29" s="16">
         <v>41193</v>
       </c>
-      <c r="Z29" s="1" t="s">
+      <c r="Z29" s="6" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="409" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -8314,23 +8332,23 @@
       <c r="U30" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V30" s="1" t="s">
+      <c r="V30" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="W30" s="1" t="s">
+      <c r="W30" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="X30" s="5">
+      <c r="X30" s="16">
         <v>41682</v>
       </c>
-      <c r="Y30" s="5">
+      <c r="Y30" s="16">
         <v>41916</v>
       </c>
-      <c r="Z30" s="1" t="s">
+      <c r="Z30" s="6" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="409" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -8370,23 +8388,23 @@
       <c r="U31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V31" s="1" t="s">
+      <c r="V31" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="W31" s="1" t="s">
+      <c r="W31" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="X31" s="5">
+      <c r="X31" s="16">
         <v>41682</v>
       </c>
-      <c r="Y31" s="5">
+      <c r="Y31" s="16">
         <v>41916</v>
       </c>
-      <c r="Z31" s="1" t="s">
+      <c r="Z31" s="6" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="409" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
@@ -8426,23 +8444,23 @@
       <c r="U32" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V32" s="1" t="s">
+      <c r="V32" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="W32" s="1" t="s">
+      <c r="W32" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="X32" s="5">
+      <c r="X32" s="16">
         <v>41682</v>
       </c>
-      <c r="Y32" s="5">
+      <c r="Y32" s="16">
         <v>41916</v>
       </c>
-      <c r="Z32" s="1" t="s">
+      <c r="Z32" s="6" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" ht="409" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -8482,23 +8500,23 @@
       <c r="U33" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V33" s="1" t="s">
+      <c r="V33" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="W33" s="1" t="s">
+      <c r="W33" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="X33" s="5">
+      <c r="X33" s="16">
         <v>41815</v>
       </c>
-      <c r="Y33" s="5">
+      <c r="Y33" s="16">
         <v>41916</v>
       </c>
-      <c r="Z33" s="1" t="s">
+      <c r="Z33" s="6" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" ht="409" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -8538,23 +8556,23 @@
       <c r="U34" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V34" s="1" t="s">
+      <c r="V34" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="W34" s="1" t="s">
+      <c r="W34" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="X34" s="5">
+      <c r="X34" s="16">
         <v>41815</v>
       </c>
-      <c r="Y34" s="5">
+      <c r="Y34" s="16">
         <v>41916</v>
       </c>
-      <c r="Z34" s="1" t="s">
+      <c r="Z34" s="6" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" ht="409" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -8594,23 +8612,23 @@
       <c r="U35" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V35" s="1" t="s">
+      <c r="V35" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="W35" s="1" t="s">
+      <c r="W35" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="X35" s="5">
+      <c r="X35" s="16">
         <v>41022</v>
       </c>
-      <c r="Y35" s="5">
+      <c r="Y35" s="16">
         <v>41916</v>
       </c>
-      <c r="Z35" s="1" t="s">
+      <c r="Z35" s="6" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" ht="409" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -8650,23 +8668,23 @@
       <c r="U36" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V36" s="1" t="s">
+      <c r="V36" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="W36" s="1" t="s">
+      <c r="W36" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="X36" s="5">
+      <c r="X36" s="16">
         <v>41324</v>
       </c>
-      <c r="Y36" s="5">
+      <c r="Y36" s="16">
         <v>41445</v>
       </c>
-      <c r="Z36" s="1" t="s">
+      <c r="Z36" s="6" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" ht="409" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -8706,23 +8724,23 @@
       <c r="U37" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V37" s="1" t="s">
+      <c r="V37" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="W37" s="1" t="s">
+      <c r="W37" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="X37" s="5">
+      <c r="X37" s="16">
         <v>41830</v>
       </c>
-      <c r="Y37" s="5">
+      <c r="Y37" s="16">
         <v>41445</v>
       </c>
-      <c r="Z37" s="1" t="s">
+      <c r="Z37" s="6" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" ht="400" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
@@ -8762,23 +8780,23 @@
       <c r="U38" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V38" s="1" t="s">
+      <c r="V38" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="W38" s="1" t="s">
+      <c r="W38" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="X38" s="5">
+      <c r="X38" s="16">
         <v>40680</v>
       </c>
-      <c r="Y38" s="5">
+      <c r="Y38" s="16">
         <v>39619</v>
       </c>
-      <c r="Z38" s="1" t="s">
+      <c r="Z38" s="6" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" ht="409" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
@@ -8818,23 +8836,23 @@
       <c r="U39" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V39" s="1" t="s">
+      <c r="V39" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="W39" s="1" t="s">
+      <c r="W39" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="X39" s="5">
+      <c r="X39" s="16">
         <v>40680</v>
       </c>
-      <c r="Y39" s="5">
+      <c r="Y39" s="16">
         <v>39619</v>
       </c>
-      <c r="Z39" s="1" t="s">
+      <c r="Z39" s="6" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" ht="409" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
@@ -8874,23 +8892,23 @@
       <c r="U40" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V40" s="1" t="s">
+      <c r="V40" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="W40" s="1" t="s">
+      <c r="W40" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="X40" s="5">
+      <c r="X40" s="16">
         <v>41178</v>
       </c>
-      <c r="Y40" s="5">
+      <c r="Y40" s="16">
         <v>40154</v>
       </c>
-      <c r="Z40" s="1" t="s">
+      <c r="Z40" s="6" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" ht="256" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
@@ -8930,23 +8948,23 @@
       <c r="U41" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V41" s="1" t="s">
+      <c r="V41" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="W41" s="1" t="s">
+      <c r="W41" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="X41" s="5">
+      <c r="X41" s="16">
         <v>41645</v>
       </c>
-      <c r="Y41" s="5">
+      <c r="Y41" s="16">
         <v>40471</v>
       </c>
-      <c r="Z41" s="1" t="s">
+      <c r="Z41" s="6" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" ht="409" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
@@ -8986,23 +9004,23 @@
       <c r="U42" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V42" s="1" t="s">
+      <c r="V42" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="W42" s="1" t="s">
+      <c r="W42" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="X42" s="5">
+      <c r="X42" s="16">
         <v>41521</v>
       </c>
-      <c r="Y42" s="5">
+      <c r="Y42" s="16">
         <v>40471</v>
       </c>
-      <c r="Z42" s="1" t="s">
+      <c r="Z42" s="6" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" ht="409" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -9042,23 +9060,23 @@
       <c r="U43" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V43" s="1" t="s">
+      <c r="V43" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="W43" s="1" t="s">
+      <c r="W43" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="X43" s="5">
+      <c r="X43" s="16">
         <v>40441</v>
       </c>
-      <c r="Y43" s="5">
+      <c r="Y43" s="16">
         <v>40471</v>
       </c>
-      <c r="Z43" s="1" t="s">
+      <c r="Z43" s="6" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" ht="80" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
@@ -9098,17 +9116,17 @@
       <c r="U44" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X44" s="5">
+      <c r="X44" s="16">
         <v>40690</v>
       </c>
-      <c r="Y44" s="5">
+      <c r="Y44" s="16">
         <v>40471</v>
       </c>
-      <c r="Z44" s="1" t="s">
+      <c r="Z44" s="6" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" ht="352" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -9148,23 +9166,23 @@
       <c r="U45" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V45" s="1" t="s">
+      <c r="V45" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="W45" s="1" t="s">
+      <c r="W45" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="X45" s="5">
+      <c r="X45" s="16">
         <v>41080</v>
       </c>
-      <c r="Y45" s="5">
+      <c r="Y45" s="16">
         <v>40471</v>
       </c>
-      <c r="Z45" s="1" t="s">
+      <c r="Z45" s="6" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26" ht="409" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
@@ -9204,23 +9222,23 @@
       <c r="U46" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V46" s="1" t="s">
+      <c r="V46" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="W46" s="1" t="s">
+      <c r="W46" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="X46" s="5">
+      <c r="X46" s="16">
         <v>41647</v>
       </c>
-      <c r="Y46" s="5">
+      <c r="Y46" s="16">
         <v>40471</v>
       </c>
-      <c r="Z46" s="1" t="s">
+      <c r="Z46" s="6" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26" ht="336" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
@@ -9259,23 +9277,23 @@
       <c r="U47" t="s">
         <v>21</v>
       </c>
-      <c r="V47" s="1" t="s">
+      <c r="V47" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="W47" s="1" t="s">
+      <c r="W47" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="X47" s="5">
+      <c r="X47" s="16">
         <v>40567</v>
       </c>
-      <c r="Y47" s="5">
+      <c r="Y47" s="16">
         <v>40471</v>
       </c>
-      <c r="Z47" s="1" t="s">
+      <c r="Z47" s="6" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:26" ht="409" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
@@ -9315,23 +9333,23 @@
       <c r="U48" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V48" s="1" t="s">
+      <c r="V48" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="W48" s="1" t="s">
+      <c r="W48" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="X48" s="5">
+      <c r="X48" s="16">
         <v>41647</v>
       </c>
-      <c r="Y48" s="5">
+      <c r="Y48" s="16">
         <v>40471</v>
       </c>
-      <c r="Z48" s="1" t="s">
+      <c r="Z48" s="6" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="49" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
@@ -9374,23 +9392,23 @@
       <c r="U49" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V49" s="1" t="s">
+      <c r="V49" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="W49" s="1" t="s">
+      <c r="W49" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="X49" s="5">
+      <c r="X49" s="16">
         <v>41647</v>
       </c>
-      <c r="Y49" s="5">
+      <c r="Y49" s="16">
         <v>40471</v>
       </c>
-      <c r="Z49" s="1" t="s">
+      <c r="Z49" s="6" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="50" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26" customFormat="1" ht="304" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
@@ -9433,23 +9451,23 @@
       <c r="U50" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V50" s="1" t="s">
+      <c r="V50" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="W50" s="1" t="s">
+      <c r="W50" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="X50" s="5">
+      <c r="X50" s="16">
         <v>41267</v>
       </c>
-      <c r="Y50" s="5">
+      <c r="Y50" s="16">
         <v>40376</v>
       </c>
-      <c r="Z50" s="1" t="s">
+      <c r="Z50" s="6" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="51" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
@@ -9495,19 +9513,19 @@
       <c r="U51" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="V51" s="1"/>
-      <c r="W51" s="1"/>
-      <c r="X51" s="5">
+      <c r="V51" s="6"/>
+      <c r="W51" s="6"/>
+      <c r="X51" s="16">
         <v>40873</v>
       </c>
-      <c r="Y51" s="5">
+      <c r="Y51" s="16">
         <v>41416</v>
       </c>
-      <c r="Z51" s="1" t="s">
+      <c r="Z51" s="6" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="52" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
@@ -9553,19 +9571,19 @@
       <c r="U52" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V52" s="1"/>
-      <c r="W52" s="1"/>
-      <c r="X52" s="5">
+      <c r="V52" s="6"/>
+      <c r="W52" s="6"/>
+      <c r="X52" s="16">
         <v>40854</v>
       </c>
-      <c r="Y52" s="5">
+      <c r="Y52" s="16">
         <v>40329</v>
       </c>
-      <c r="Z52" s="1" t="s">
+      <c r="Z52" s="6" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="53" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26" customFormat="1" ht="384" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
@@ -9608,19 +9626,19 @@
       <c r="U53" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="V53" s="1"/>
-      <c r="W53" s="1"/>
-      <c r="X53" s="5">
+      <c r="V53" s="6"/>
+      <c r="W53" s="6"/>
+      <c r="X53" s="16">
         <v>40648</v>
       </c>
-      <c r="Y53" s="5">
-        <v>40471</v>
-      </c>
-      <c r="Z53" s="1" t="s">
+      <c r="Y53" s="16">
+        <v>40928</v>
+      </c>
+      <c r="Z53" s="6" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="54" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26" customFormat="1" ht="384" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
@@ -9663,15 +9681,15 @@
       <c r="U54" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="V54" s="1"/>
-      <c r="W54" s="1"/>
-      <c r="X54" s="5">
+      <c r="V54" s="6"/>
+      <c r="W54" s="6"/>
+      <c r="X54" s="16">
         <v>40442</v>
       </c>
-      <c r="Y54" s="5">
-        <v>40471</v>
-      </c>
-      <c r="Z54" s="1" t="s">
+      <c r="Y54" s="16">
+        <v>40928</v>
+      </c>
+      <c r="Z54" s="6" t="s">
         <v>467</v>
       </c>
     </row>
@@ -9721,15 +9739,15 @@
       <c r="U55" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V55" s="1"/>
-      <c r="W55" s="1"/>
-      <c r="X55" s="5">
+      <c r="V55" s="6"/>
+      <c r="W55" s="6"/>
+      <c r="X55" s="16">
         <v>40954</v>
       </c>
-      <c r="Y55" s="5">
+      <c r="Y55" s="16">
         <v>41051</v>
       </c>
-      <c r="Z55" s="1"/>
+      <c r="Z55" s="6"/>
     </row>
     <row r="56" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
@@ -9777,15 +9795,15 @@
       <c r="U56" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V56" s="1"/>
-      <c r="W56" s="1"/>
-      <c r="X56" s="5">
+      <c r="V56" s="6"/>
+      <c r="W56" s="6"/>
+      <c r="X56" s="16">
         <v>41709</v>
       </c>
-      <c r="Y56" s="5">
+      <c r="Y56" s="16">
         <v>40892</v>
       </c>
-      <c r="Z56" s="1"/>
+      <c r="Z56" s="6"/>
     </row>
     <row r="57" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
@@ -9845,15 +9863,15 @@
       <c r="U57" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V57" s="1"/>
-      <c r="W57" s="1"/>
-      <c r="X57" s="5">
+      <c r="V57" s="6"/>
+      <c r="W57" s="6"/>
+      <c r="X57" s="16">
         <v>40659</v>
       </c>
-      <c r="Y57" s="5">
+      <c r="Y57" s="16">
         <v>40892</v>
       </c>
-      <c r="Z57" s="1"/>
+      <c r="Z57" s="6"/>
     </row>
     <row r="58" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
@@ -9913,15 +9931,15 @@
       <c r="U58" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V58" s="1"/>
-      <c r="W58" s="1"/>
-      <c r="X58" s="5">
+      <c r="V58" s="6"/>
+      <c r="W58" s="6"/>
+      <c r="X58" s="16">
         <v>40659</v>
       </c>
-      <c r="Y58" s="5">
+      <c r="Y58" s="16">
         <v>40892</v>
       </c>
-      <c r="Z58" s="1"/>
+      <c r="Z58" s="6"/>
     </row>
     <row r="59" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
@@ -9981,15 +9999,15 @@
       <c r="U59" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V59" s="1"/>
-      <c r="W59" s="1"/>
-      <c r="X59" s="5">
+      <c r="V59" s="6"/>
+      <c r="W59" s="6"/>
+      <c r="X59" s="16">
         <v>40659</v>
       </c>
-      <c r="Y59" s="5">
+      <c r="Y59" s="16">
         <v>40892</v>
       </c>
-      <c r="Z59" s="1"/>
+      <c r="Z59" s="6"/>
     </row>
     <row r="60" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
@@ -10049,15 +10067,15 @@
       <c r="U60" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V60" s="1"/>
-      <c r="W60" s="1"/>
-      <c r="X60" s="5">
+      <c r="V60" s="6"/>
+      <c r="W60" s="6"/>
+      <c r="X60" s="16">
         <v>40659</v>
       </c>
-      <c r="Y60" s="5">
+      <c r="Y60" s="16">
         <v>40892</v>
       </c>
-      <c r="Z60" s="1"/>
+      <c r="Z60" s="6"/>
     </row>
     <row r="61" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
@@ -10105,15 +10123,15 @@
       <c r="U61" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V61" s="1"/>
-      <c r="W61" s="1"/>
-      <c r="X61" s="5">
+      <c r="V61" s="6"/>
+      <c r="W61" s="6"/>
+      <c r="X61" s="16">
         <v>41022</v>
       </c>
-      <c r="Y61" s="5">
+      <c r="Y61" s="16">
         <v>41355</v>
       </c>
-      <c r="Z61" s="1"/>
+      <c r="Z61" s="6"/>
     </row>
     <row r="62" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
@@ -10161,15 +10179,15 @@
       <c r="U62" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V62" s="1"/>
-      <c r="W62" s="1"/>
-      <c r="X62" s="5">
+      <c r="V62" s="6"/>
+      <c r="W62" s="6"/>
+      <c r="X62" s="16">
         <v>41289</v>
       </c>
-      <c r="Y62" s="5">
+      <c r="Y62" s="16">
         <v>41355</v>
       </c>
-      <c r="Z62" s="1"/>
+      <c r="Z62" s="6"/>
     </row>
     <row r="63" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
@@ -10217,15 +10235,15 @@
       <c r="U63" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V63" s="1"/>
-      <c r="W63" s="1"/>
-      <c r="X63" s="5">
+      <c r="V63" s="6"/>
+      <c r="W63" s="6"/>
+      <c r="X63" s="16">
         <v>41680</v>
       </c>
-      <c r="Y63" s="5">
+      <c r="Y63" s="16">
         <v>41355</v>
       </c>
-      <c r="Z63" s="1"/>
+      <c r="Z63" s="6"/>
     </row>
     <row r="64" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
@@ -10273,15 +10291,15 @@
       <c r="U64" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V64" s="1"/>
-      <c r="W64" s="1"/>
-      <c r="X64" s="5">
+      <c r="V64" s="6"/>
+      <c r="W64" s="6"/>
+      <c r="X64" s="16">
         <v>41616</v>
       </c>
-      <c r="Y64" s="5">
+      <c r="Y64" s="16">
         <v>41355</v>
       </c>
-      <c r="Z64" s="1"/>
+      <c r="Z64" s="6"/>
     </row>
     <row r="65" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
@@ -10329,15 +10347,15 @@
       <c r="U65" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V65" s="1"/>
-      <c r="W65" s="1"/>
-      <c r="X65" s="5">
+      <c r="V65" s="6"/>
+      <c r="W65" s="6"/>
+      <c r="X65" s="16">
         <v>41684</v>
       </c>
-      <c r="Y65" s="5">
+      <c r="Y65" s="16">
         <v>41355</v>
       </c>
-      <c r="Z65" s="1"/>
+      <c r="Z65" s="6"/>
     </row>
     <row r="66" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
@@ -10385,15 +10403,15 @@
       <c r="U66" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V66" s="1"/>
-      <c r="W66" s="1"/>
-      <c r="X66" s="5">
+      <c r="V66" s="6"/>
+      <c r="W66" s="6"/>
+      <c r="X66" s="16">
         <v>40377</v>
       </c>
-      <c r="Y66" s="5">
+      <c r="Y66" s="16">
         <v>41355</v>
       </c>
-      <c r="Z66" s="1"/>
+      <c r="Z66" s="6"/>
     </row>
     <row r="67" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
@@ -10441,15 +10459,15 @@
       <c r="U67" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V67" s="1"/>
-      <c r="W67" s="1"/>
-      <c r="X67" s="5">
+      <c r="V67" s="6"/>
+      <c r="W67" s="6"/>
+      <c r="X67" s="16">
         <v>40445</v>
       </c>
-      <c r="Y67" s="5">
+      <c r="Y67" s="16">
         <v>41355</v>
       </c>
-      <c r="Z67" s="1"/>
+      <c r="Z67" s="6"/>
     </row>
     <row r="68" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
@@ -10497,15 +10515,15 @@
       <c r="U68" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V68" s="1"/>
-      <c r="W68" s="1"/>
-      <c r="X68" s="5">
+      <c r="V68" s="6"/>
+      <c r="W68" s="6"/>
+      <c r="X68" s="16">
         <v>40301</v>
       </c>
-      <c r="Y68" s="5">
+      <c r="Y68" s="16">
         <v>41355</v>
       </c>
-      <c r="Z68" s="1"/>
+      <c r="Z68" s="6"/>
     </row>
     <row r="69" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
@@ -10553,15 +10571,15 @@
       <c r="U69" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V69" s="1"/>
-      <c r="W69" s="1"/>
-      <c r="X69" s="5">
+      <c r="V69" s="6"/>
+      <c r="W69" s="6"/>
+      <c r="X69" s="16">
         <v>41359</v>
       </c>
-      <c r="Y69" s="5">
+      <c r="Y69" s="16">
         <v>41355</v>
       </c>
-      <c r="Z69" s="1"/>
+      <c r="Z69" s="6"/>
     </row>
     <row r="70" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
@@ -10609,15 +10627,15 @@
       <c r="U70" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V70" s="1"/>
-      <c r="W70" s="1"/>
-      <c r="X70" s="5">
+      <c r="V70" s="6"/>
+      <c r="W70" s="6"/>
+      <c r="X70" s="16">
         <v>41053</v>
       </c>
-      <c r="Y70" s="5">
+      <c r="Y70" s="16">
         <v>41355</v>
       </c>
-      <c r="Z70" s="1"/>
+      <c r="Z70" s="6"/>
     </row>
     <row r="71" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
@@ -10663,15 +10681,15 @@
       <c r="U71" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V71" s="1"/>
-      <c r="W71" s="1"/>
-      <c r="X71" s="5">
+      <c r="V71" s="6"/>
+      <c r="W71" s="6"/>
+      <c r="X71" s="16">
         <v>41430</v>
       </c>
-      <c r="Y71" s="5">
+      <c r="Y71" s="16">
         <v>41355</v>
       </c>
-      <c r="Z71" s="1"/>
+      <c r="Z71" s="6"/>
     </row>
     <row r="72" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
@@ -10717,19 +10735,19 @@
       <c r="U72" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V72" s="1"/>
-      <c r="W72" s="1"/>
-      <c r="X72" s="5">
+      <c r="V72" s="6"/>
+      <c r="W72" s="6"/>
+      <c r="X72" s="16">
         <v>41372</v>
       </c>
-      <c r="Y72" s="5">
+      <c r="Y72" s="16">
         <v>39998</v>
       </c>
-      <c r="Z72" s="1" t="s">
+      <c r="Z72" s="6" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="73" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:26" customFormat="1" ht="256" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
@@ -10772,19 +10790,19 @@
       <c r="U73" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V73" s="1" t="s">
+      <c r="V73" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="W73" s="1"/>
-      <c r="X73" s="5">
+      <c r="W73" s="6"/>
+      <c r="X73" s="16">
         <v>41085</v>
       </c>
-      <c r="Y73" s="5">
+      <c r="Y73" s="16">
         <v>40268</v>
       </c>
-      <c r="Z73" s="1"/>
-    </row>
-    <row r="74" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z73" s="6"/>
+    </row>
+    <row r="74" spans="1:26" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>0</v>
       </c>
@@ -10827,19 +10845,19 @@
       <c r="U74" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V74" s="1" t="s">
+      <c r="V74" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="W74" s="1"/>
-      <c r="X74" s="5">
+      <c r="W74" s="6"/>
+      <c r="X74" s="16">
         <v>40485</v>
       </c>
-      <c r="Y74" s="5">
+      <c r="Y74" s="16">
         <v>40268</v>
       </c>
-      <c r="Z74" s="1"/>
-    </row>
-    <row r="75" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z74" s="6"/>
+    </row>
+    <row r="75" spans="1:26" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>0</v>
       </c>
@@ -10882,19 +10900,19 @@
       <c r="U75" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V75" s="1" t="s">
+      <c r="V75" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="W75" s="1"/>
-      <c r="X75" s="5">
+      <c r="W75" s="6"/>
+      <c r="X75" s="16">
         <v>41500</v>
       </c>
-      <c r="Y75" s="5">
+      <c r="Y75" s="16">
         <v>40268</v>
       </c>
-      <c r="Z75" s="1"/>
-    </row>
-    <row r="76" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z75" s="6"/>
+    </row>
+    <row r="76" spans="1:26" customFormat="1" ht="304" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>0</v>
       </c>
@@ -10937,19 +10955,19 @@
       <c r="U76" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V76" s="1" t="s">
+      <c r="V76" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="W76" s="1"/>
-      <c r="X76" s="5">
+      <c r="W76" s="6"/>
+      <c r="X76" s="16">
         <v>41145</v>
       </c>
-      <c r="Y76" s="5">
+      <c r="Y76" s="16">
         <v>40268</v>
       </c>
-      <c r="Z76" s="1"/>
-    </row>
-    <row r="77" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z76" s="6"/>
+    </row>
+    <row r="77" spans="1:26" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>0</v>
       </c>
@@ -10992,19 +11010,19 @@
       <c r="U77" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V77" s="1" t="s">
+      <c r="V77" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="W77" s="1"/>
-      <c r="X77" s="5">
+      <c r="W77" s="6"/>
+      <c r="X77" s="16">
         <v>41499</v>
       </c>
-      <c r="Y77" s="5">
+      <c r="Y77" s="16">
         <v>40154</v>
       </c>
-      <c r="Z77" s="1"/>
-    </row>
-    <row r="78" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z77" s="6"/>
+    </row>
+    <row r="78" spans="1:26" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>0</v>
       </c>
@@ -11047,17 +11065,17 @@
       <c r="U78" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V78" s="1" t="s">
+      <c r="V78" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="W78" s="1"/>
-      <c r="X78" s="5">
+      <c r="W78" s="6"/>
+      <c r="X78" s="16">
         <v>41499</v>
       </c>
-      <c r="Y78" s="5">
+      <c r="Y78" s="16">
         <v>40154</v>
       </c>
-      <c r="Z78" s="1"/>
+      <c r="Z78" s="6"/>
     </row>
     <row r="79" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
@@ -11102,15 +11120,15 @@
       <c r="U79" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V79" s="1"/>
-      <c r="W79" s="1"/>
-      <c r="X79" s="5">
+      <c r="V79" s="6"/>
+      <c r="W79" s="6"/>
+      <c r="X79" s="16">
         <v>41624</v>
       </c>
-      <c r="Y79" s="5">
+      <c r="Y79" s="16">
         <v>40471</v>
       </c>
-      <c r="Z79" s="1"/>
+      <c r="Z79" s="6"/>
     </row>
     <row r="80" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
@@ -11156,15 +11174,15 @@
       <c r="U80" t="s">
         <v>5</v>
       </c>
-      <c r="V80" s="1"/>
-      <c r="W80" s="1"/>
-      <c r="X80" s="5">
+      <c r="V80" s="6"/>
+      <c r="W80" s="6"/>
+      <c r="X80" s="16">
         <v>41684</v>
       </c>
-      <c r="Y80" s="5">
+      <c r="Y80" s="16">
         <v>40471</v>
       </c>
-      <c r="Z80" s="1"/>
+      <c r="Z80" s="6"/>
     </row>
     <row r="81" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
@@ -11209,15 +11227,15 @@
       <c r="U81" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V81" s="1"/>
-      <c r="W81" s="1"/>
-      <c r="X81" s="5">
+      <c r="V81" s="6"/>
+      <c r="W81" s="6"/>
+      <c r="X81" s="16">
         <v>40848</v>
       </c>
-      <c r="Y81" s="5">
+      <c r="Y81" s="16">
         <v>40471</v>
       </c>
-      <c r="Z81" s="1"/>
+      <c r="Z81" s="6"/>
     </row>
     <row r="82" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
@@ -11262,15 +11280,15 @@
       <c r="U82" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V82" s="1"/>
-      <c r="W82" s="1"/>
-      <c r="X82" s="5">
+      <c r="V82" s="6"/>
+      <c r="W82" s="6"/>
+      <c r="X82" s="16">
         <v>41056</v>
       </c>
-      <c r="Y82" s="5">
+      <c r="Y82" s="16">
         <v>41288</v>
       </c>
-      <c r="Z82" s="1"/>
+      <c r="Z82" s="6"/>
     </row>
     <row r="83" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
@@ -11315,15 +11333,15 @@
       <c r="U83" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V83" s="1"/>
-      <c r="W83" s="1"/>
-      <c r="X83" s="5">
+      <c r="V83" s="6"/>
+      <c r="W83" s="6"/>
+      <c r="X83" s="16">
         <v>41056</v>
       </c>
-      <c r="Y83" s="5">
+      <c r="Y83" s="16">
         <v>41288</v>
       </c>
-      <c r="Z83" s="1"/>
+      <c r="Z83" s="6"/>
     </row>
     <row r="84" spans="1:26" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
@@ -11356,7 +11374,7 @@
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
-      <c r="O84" s="16" t="s">
+      <c r="O84" s="14" t="s">
         <v>780</v>
       </c>
       <c r="P84" s="3" t="s">
@@ -11368,31 +11386,31 @@
       <c r="U84" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="V84" s="2"/>
-      <c r="W84" s="2"/>
-      <c r="X84" s="6">
+      <c r="V84" s="17"/>
+      <c r="W84" s="17"/>
+      <c r="X84" s="18">
         <v>41056</v>
       </c>
-      <c r="Y84" s="6">
+      <c r="Y84" s="18">
         <v>41288</v>
       </c>
-      <c r="Z84" s="2"/>
-    </row>
-    <row r="85" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="9"/>
-      <c r="B85" s="9"/>
-      <c r="J85" s="9"/>
-      <c r="K85" s="9"/>
-      <c r="L85" s="9"/>
-      <c r="M85" s="9"/>
-      <c r="N85" s="9"/>
-      <c r="O85" s="17"/>
-      <c r="U85" s="9"/>
-      <c r="V85" s="9"/>
-      <c r="W85" s="9"/>
-      <c r="X85" s="11"/>
-      <c r="Y85" s="11"/>
-      <c r="Z85" s="9"/>
+      <c r="Z84" s="17"/>
+    </row>
+    <row r="85" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="8"/>
+      <c r="B85" s="8"/>
+      <c r="J85" s="8"/>
+      <c r="K85" s="8"/>
+      <c r="L85" s="8"/>
+      <c r="M85" s="8"/>
+      <c r="N85" s="8"/>
+      <c r="O85" s="15"/>
+      <c r="U85" s="8"/>
+      <c r="V85" s="19"/>
+      <c r="W85" s="19"/>
+      <c r="X85" s="20"/>
+      <c r="Y85" s="20"/>
+      <c r="Z85" s="19"/>
     </row>
     <row r="86" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
@@ -11446,6 +11464,11 @@
       <c r="R86" t="s">
         <v>179</v>
       </c>
+      <c r="V86" s="21"/>
+      <c r="W86" s="21"/>
+      <c r="X86" s="21"/>
+      <c r="Y86" s="21"/>
+      <c r="Z86" s="21"/>
     </row>
     <row r="87" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
@@ -11499,6 +11522,11 @@
       <c r="R87" t="s">
         <v>494</v>
       </c>
+      <c r="V87" s="21"/>
+      <c r="W87" s="21"/>
+      <c r="X87" s="21"/>
+      <c r="Y87" s="21"/>
+      <c r="Z87" s="21"/>
     </row>
     <row r="88" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
@@ -11552,6 +11580,11 @@
       <c r="R88" t="s">
         <v>495</v>
       </c>
+      <c r="V88" s="21"/>
+      <c r="W88" s="21"/>
+      <c r="X88" s="21"/>
+      <c r="Y88" s="21"/>
+      <c r="Z88" s="21"/>
     </row>
     <row r="89" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
@@ -11605,6 +11638,11 @@
       <c r="R89" t="s">
         <v>498</v>
       </c>
+      <c r="V89" s="21"/>
+      <c r="W89" s="21"/>
+      <c r="X89" s="21"/>
+      <c r="Y89" s="21"/>
+      <c r="Z89" s="21"/>
     </row>
     <row r="90" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
@@ -11664,6 +11702,11 @@
       <c r="T90">
         <v>40181</v>
       </c>
+      <c r="V90" s="21"/>
+      <c r="W90" s="21"/>
+      <c r="X90" s="21"/>
+      <c r="Y90" s="21"/>
+      <c r="Z90" s="21"/>
     </row>
     <row r="91" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
@@ -11723,6 +11766,11 @@
       <c r="T91">
         <v>40190</v>
       </c>
+      <c r="V91" s="21"/>
+      <c r="W91" s="21"/>
+      <c r="X91" s="21"/>
+      <c r="Y91" s="21"/>
+      <c r="Z91" s="21"/>
     </row>
     <row r="92" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
@@ -11782,6 +11830,11 @@
       <c r="T92">
         <v>40181</v>
       </c>
+      <c r="V92" s="21"/>
+      <c r="W92" s="21"/>
+      <c r="X92" s="21"/>
+      <c r="Y92" s="21"/>
+      <c r="Z92" s="21"/>
     </row>
     <row r="93" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
@@ -11841,6 +11894,11 @@
       <c r="T93">
         <v>40189</v>
       </c>
+      <c r="V93" s="21"/>
+      <c r="W93" s="21"/>
+      <c r="X93" s="21"/>
+      <c r="Y93" s="21"/>
+      <c r="Z93" s="21"/>
     </row>
     <row r="94" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
@@ -11900,6 +11958,11 @@
       <c r="T94">
         <v>40195</v>
       </c>
+      <c r="V94" s="21"/>
+      <c r="W94" s="21"/>
+      <c r="X94" s="21"/>
+      <c r="Y94" s="21"/>
+      <c r="Z94" s="21"/>
     </row>
     <row r="95" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
@@ -11959,6 +12022,11 @@
       <c r="T95">
         <v>40181</v>
       </c>
+      <c r="V95" s="21"/>
+      <c r="W95" s="21"/>
+      <c r="X95" s="21"/>
+      <c r="Y95" s="21"/>
+      <c r="Z95" s="21"/>
     </row>
     <row r="96" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
@@ -12018,8 +12086,13 @@
       <c r="T96">
         <v>40194</v>
       </c>
-    </row>
-    <row r="97" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V96" s="21"/>
+      <c r="W96" s="21"/>
+      <c r="X96" s="21"/>
+      <c r="Y96" s="21"/>
+      <c r="Z96" s="21"/>
+    </row>
+    <row r="97" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>110</v>
       </c>
@@ -12077,8 +12150,13 @@
       <c r="T97">
         <v>40183</v>
       </c>
-    </row>
-    <row r="98" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V97" s="21"/>
+      <c r="W97" s="21"/>
+      <c r="X97" s="21"/>
+      <c r="Y97" s="21"/>
+      <c r="Z97" s="21"/>
+    </row>
+    <row r="98" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>110</v>
       </c>
@@ -12136,8 +12214,13 @@
       <c r="T98">
         <v>40188</v>
       </c>
-    </row>
-    <row r="99" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V98" s="21"/>
+      <c r="W98" s="21"/>
+      <c r="X98" s="21"/>
+      <c r="Y98" s="21"/>
+      <c r="Z98" s="21"/>
+    </row>
+    <row r="99" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>110</v>
       </c>
@@ -12195,8 +12278,13 @@
       <c r="T99">
         <v>39955</v>
       </c>
-    </row>
-    <row r="100" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V99" s="21"/>
+      <c r="W99" s="21"/>
+      <c r="X99" s="21"/>
+      <c r="Y99" s="21"/>
+      <c r="Z99" s="21"/>
+    </row>
+    <row r="100" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>110</v>
       </c>
@@ -12248,8 +12336,13 @@
       <c r="R100" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="101" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V100" s="21"/>
+      <c r="W100" s="21"/>
+      <c r="X100" s="21"/>
+      <c r="Y100" s="21"/>
+      <c r="Z100" s="21"/>
+    </row>
+    <row r="101" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>33</v>
       </c>
@@ -12307,8 +12400,13 @@
       <c r="T101">
         <v>40196</v>
       </c>
-    </row>
-    <row r="102" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V101" s="21"/>
+      <c r="W101" s="21"/>
+      <c r="X101" s="21"/>
+      <c r="Y101" s="21"/>
+      <c r="Z101" s="21"/>
+    </row>
+    <row r="102" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>33</v>
       </c>
@@ -12366,8 +12464,13 @@
       <c r="T102">
         <v>40191</v>
       </c>
-    </row>
-    <row r="103" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V102" s="21"/>
+      <c r="W102" s="21"/>
+      <c r="X102" s="21"/>
+      <c r="Y102" s="21"/>
+      <c r="Z102" s="21"/>
+    </row>
+    <row r="103" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>33</v>
       </c>
@@ -12425,8 +12528,13 @@
       <c r="T103">
         <v>40181</v>
       </c>
-    </row>
-    <row r="104" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V103" s="21"/>
+      <c r="W103" s="21"/>
+      <c r="X103" s="21"/>
+      <c r="Y103" s="21"/>
+      <c r="Z103" s="21"/>
+    </row>
+    <row r="104" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>33</v>
       </c>
@@ -12484,8 +12592,13 @@
       <c r="T104">
         <v>40200</v>
       </c>
-    </row>
-    <row r="105" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V104" s="21"/>
+      <c r="W104" s="21"/>
+      <c r="X104" s="21"/>
+      <c r="Y104" s="21"/>
+      <c r="Z104" s="21"/>
+    </row>
+    <row r="105" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>33</v>
       </c>
@@ -12543,8 +12656,13 @@
       <c r="T105">
         <v>40192</v>
       </c>
-    </row>
-    <row r="106" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V105" s="21"/>
+      <c r="W105" s="21"/>
+      <c r="X105" s="21"/>
+      <c r="Y105" s="21"/>
+      <c r="Z105" s="21"/>
+    </row>
+    <row r="106" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>33</v>
       </c>
@@ -12602,8 +12720,13 @@
       <c r="T106">
         <v>39750</v>
       </c>
-    </row>
-    <row r="107" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V106" s="21"/>
+      <c r="W106" s="21"/>
+      <c r="X106" s="21"/>
+      <c r="Y106" s="21"/>
+      <c r="Z106" s="21"/>
+    </row>
+    <row r="107" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>33</v>
       </c>
@@ -12661,8 +12784,13 @@
       <c r="T107">
         <v>40187</v>
       </c>
-    </row>
-    <row r="108" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V107" s="21"/>
+      <c r="W107" s="21"/>
+      <c r="X107" s="21"/>
+      <c r="Y107" s="21"/>
+      <c r="Z107" s="21"/>
+    </row>
+    <row r="108" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>33</v>
       </c>
@@ -12720,8 +12848,13 @@
       <c r="T108">
         <v>40199</v>
       </c>
-    </row>
-    <row r="109" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V108" s="21"/>
+      <c r="W108" s="21"/>
+      <c r="X108" s="21"/>
+      <c r="Y108" s="21"/>
+      <c r="Z108" s="21"/>
+    </row>
+    <row r="109" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>33</v>
       </c>
@@ -12779,8 +12912,13 @@
       <c r="T109">
         <v>40193</v>
       </c>
-    </row>
-    <row r="110" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V109" s="21"/>
+      <c r="W109" s="21"/>
+      <c r="X109" s="21"/>
+      <c r="Y109" s="21"/>
+      <c r="Z109" s="21"/>
+    </row>
+    <row r="110" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>33</v>
       </c>
@@ -12838,8 +12976,13 @@
       <c r="T110">
         <v>40197</v>
       </c>
-    </row>
-    <row r="111" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V110" s="21"/>
+      <c r="W110" s="21"/>
+      <c r="X110" s="21"/>
+      <c r="Y110" s="21"/>
+      <c r="Z110" s="21"/>
+    </row>
+    <row r="111" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>33</v>
       </c>
@@ -12897,8 +13040,13 @@
       <c r="T111">
         <v>40009</v>
       </c>
-    </row>
-    <row r="112" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V111" s="21"/>
+      <c r="W111" s="21"/>
+      <c r="X111" s="21"/>
+      <c r="Y111" s="21"/>
+      <c r="Z111" s="21"/>
+    </row>
+    <row r="112" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>137</v>
       </c>
@@ -12956,8 +13104,13 @@
       <c r="T112">
         <v>40181</v>
       </c>
-    </row>
-    <row r="113" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V112" s="21"/>
+      <c r="W112" s="21"/>
+      <c r="X112" s="21"/>
+      <c r="Y112" s="21"/>
+      <c r="Z112" s="21"/>
+    </row>
+    <row r="113" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>137</v>
       </c>
@@ -13009,8 +13162,13 @@
       <c r="R113" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="114" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V113" s="21"/>
+      <c r="W113" s="21"/>
+      <c r="X113" s="21"/>
+      <c r="Y113" s="21"/>
+      <c r="Z113" s="21"/>
+    </row>
+    <row r="114" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>137</v>
       </c>
@@ -13062,8 +13220,13 @@
       <c r="R114" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="115" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V114" s="21"/>
+      <c r="W114" s="21"/>
+      <c r="X114" s="21"/>
+      <c r="Y114" s="21"/>
+      <c r="Z114" s="21"/>
+    </row>
+    <row r="115" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>33</v>
       </c>
@@ -13115,8 +13278,13 @@
       <c r="R115" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="116" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V115" s="21"/>
+      <c r="W115" s="21"/>
+      <c r="X115" s="21"/>
+      <c r="Y115" s="21"/>
+      <c r="Z115" s="21"/>
+    </row>
+    <row r="116" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>33</v>
       </c>
@@ -13168,8 +13336,13 @@
       <c r="R116" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="117" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V116" s="21"/>
+      <c r="W116" s="21"/>
+      <c r="X116" s="21"/>
+      <c r="Y116" s="21"/>
+      <c r="Z116" s="21"/>
+    </row>
+    <row r="117" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>33</v>
       </c>
@@ -13221,8 +13394,13 @@
       <c r="R117" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="118" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V117" s="21"/>
+      <c r="W117" s="21"/>
+      <c r="X117" s="21"/>
+      <c r="Y117" s="21"/>
+      <c r="Z117" s="21"/>
+    </row>
+    <row r="118" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>33</v>
       </c>
@@ -13274,8 +13452,13 @@
       <c r="R118" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="119" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V118" s="21"/>
+      <c r="W118" s="21"/>
+      <c r="X118" s="21"/>
+      <c r="Y118" s="21"/>
+      <c r="Z118" s="21"/>
+    </row>
+    <row r="119" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>137</v>
       </c>
@@ -13327,8 +13510,13 @@
       <c r="R119" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="120" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V119" s="21"/>
+      <c r="W119" s="21"/>
+      <c r="X119" s="21"/>
+      <c r="Y119" s="21"/>
+      <c r="Z119" s="21"/>
+    </row>
+    <row r="120" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>137</v>
       </c>
@@ -13380,8 +13568,13 @@
       <c r="R120" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="121" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V120" s="21"/>
+      <c r="W120" s="21"/>
+      <c r="X120" s="21"/>
+      <c r="Y120" s="21"/>
+      <c r="Z120" s="21"/>
+    </row>
+    <row r="121" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>137</v>
       </c>
@@ -13433,8 +13626,13 @@
       <c r="R121" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="122" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V121" s="21"/>
+      <c r="W121" s="21"/>
+      <c r="X121" s="21"/>
+      <c r="Y121" s="21"/>
+      <c r="Z121" s="21"/>
+    </row>
+    <row r="122" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>137</v>
       </c>
@@ -13486,8 +13684,13 @@
       <c r="R122" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="123" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V122" s="21"/>
+      <c r="W122" s="21"/>
+      <c r="X122" s="21"/>
+      <c r="Y122" s="21"/>
+      <c r="Z122" s="21"/>
+    </row>
+    <row r="123" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>0</v>
       </c>
@@ -13529,9 +13732,13 @@
         <v>129</v>
       </c>
       <c r="U123" s="1"/>
-      <c r="V123" s="1"/>
-    </row>
-    <row r="124" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V123" s="6"/>
+      <c r="W123" s="21"/>
+      <c r="X123" s="21"/>
+      <c r="Y123" s="21"/>
+      <c r="Z123" s="21"/>
+    </row>
+    <row r="124" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>0</v>
       </c>
@@ -13573,9 +13780,13 @@
         <v>132</v>
       </c>
       <c r="U124" s="1"/>
-      <c r="V124" s="1"/>
-    </row>
-    <row r="125" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V124" s="6"/>
+      <c r="W124" s="21"/>
+      <c r="X124" s="21"/>
+      <c r="Y124" s="21"/>
+      <c r="Z124" s="21"/>
+    </row>
+    <row r="125" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>0</v>
       </c>
@@ -13620,9 +13831,13 @@
         <v>28</v>
       </c>
       <c r="U125" s="1"/>
-      <c r="V125" s="1"/>
-    </row>
-    <row r="126" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V125" s="6"/>
+      <c r="W125" s="21"/>
+      <c r="X125" s="21"/>
+      <c r="Y125" s="21"/>
+      <c r="Z125" s="21"/>
+    </row>
+    <row r="126" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>0</v>
       </c>
@@ -13667,9 +13882,13 @@
         <v>28</v>
       </c>
       <c r="U126" s="1"/>
-      <c r="V126" s="1"/>
-    </row>
-    <row r="127" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V126" s="6"/>
+      <c r="W126" s="21"/>
+      <c r="X126" s="21"/>
+      <c r="Y126" s="21"/>
+      <c r="Z126" s="21"/>
+    </row>
+    <row r="127" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>0</v>
       </c>
@@ -13714,9 +13933,13 @@
         <v>28</v>
       </c>
       <c r="U127" s="1"/>
-      <c r="V127" s="1"/>
-    </row>
-    <row r="128" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V127" s="6"/>
+      <c r="W127" s="21"/>
+      <c r="X127" s="21"/>
+      <c r="Y127" s="21"/>
+      <c r="Z127" s="21"/>
+    </row>
+    <row r="128" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>0</v>
       </c>
@@ -13758,9 +13981,13 @@
         <v>145</v>
       </c>
       <c r="U128" s="1"/>
-      <c r="V128" s="1"/>
-    </row>
-    <row r="129" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V128" s="6"/>
+      <c r="W128" s="21"/>
+      <c r="X128" s="21"/>
+      <c r="Y128" s="21"/>
+      <c r="Z128" s="21"/>
+    </row>
+    <row r="129" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>0</v>
       </c>
@@ -13805,9 +14032,13 @@
         <v>28</v>
       </c>
       <c r="U129" s="1"/>
-      <c r="V129" s="1"/>
-    </row>
-    <row r="130" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V129" s="6"/>
+      <c r="W129" s="21"/>
+      <c r="X129" s="21"/>
+      <c r="Y129" s="21"/>
+      <c r="Z129" s="21"/>
+    </row>
+    <row r="130" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>0</v>
       </c>
@@ -13852,9 +14083,13 @@
         <v>28</v>
       </c>
       <c r="U130" s="1"/>
-      <c r="V130" s="1"/>
-    </row>
-    <row r="131" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V130" s="6"/>
+      <c r="W130" s="21"/>
+      <c r="X130" s="21"/>
+      <c r="Y130" s="21"/>
+      <c r="Z130" s="21"/>
+    </row>
+    <row r="131" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>0</v>
       </c>
@@ -13899,9 +14134,13 @@
         <v>28</v>
       </c>
       <c r="U131" s="1"/>
-      <c r="V131" s="1"/>
-    </row>
-    <row r="132" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V131" s="6"/>
+      <c r="W131" s="21"/>
+      <c r="X131" s="21"/>
+      <c r="Y131" s="21"/>
+      <c r="Z131" s="21"/>
+    </row>
+    <row r="132" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>0</v>
       </c>
@@ -13943,9 +14182,13 @@
         <v>153</v>
       </c>
       <c r="U132" s="1"/>
-      <c r="V132" s="1"/>
-    </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V132" s="6"/>
+      <c r="W132" s="21"/>
+      <c r="X132" s="21"/>
+      <c r="Y132" s="21"/>
+      <c r="Z132" s="21"/>
+    </row>
+    <row r="133" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>0</v>
       </c>
@@ -13982,7 +14225,7 @@
       <c r="S133"/>
       <c r="T133"/>
     </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>0</v>
       </c>
@@ -14019,7 +14262,7 @@
       <c r="S134"/>
       <c r="T134"/>
     </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>0</v>
       </c>
@@ -14056,7 +14299,7 @@
       <c r="S135"/>
       <c r="T135"/>
     </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>0</v>
       </c>
@@ -14095,7 +14338,7 @@
       </c>
       <c r="T136"/>
     </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>0</v>
       </c>
@@ -14132,7 +14375,7 @@
       <c r="S137"/>
       <c r="T137"/>
     </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>0</v>
       </c>
@@ -14169,7 +14412,7 @@
       <c r="S138"/>
       <c r="T138"/>
     </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>0</v>
       </c>
@@ -14206,7 +14449,7 @@
       <c r="S139"/>
       <c r="T139"/>
     </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>0</v>
       </c>
@@ -14245,7 +14488,7 @@
       </c>
       <c r="T140"/>
     </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>0</v>
       </c>
@@ -14282,7 +14525,7 @@
       <c r="S141"/>
       <c r="T141"/>
     </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>0</v>
       </c>
@@ -14319,7 +14562,7 @@
       <c r="S142"/>
       <c r="T142"/>
     </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>0</v>
       </c>
@@ -14358,7 +14601,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>0</v>
       </c>
@@ -25992,7 +26235,7 @@
       <c r="S457"/>
       <c r="T457"/>
       <c r="U457"/>
-      <c r="V457"/>
+      <c r="V457" s="21"/>
     </row>
     <row r="458" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
@@ -26050,7 +26293,7 @@
       <c r="S458"/>
       <c r="T458"/>
       <c r="U458"/>
-      <c r="V458"/>
+      <c r="V458" s="21"/>
     </row>
     <row r="459" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
@@ -26108,7 +26351,7 @@
       <c r="S459"/>
       <c r="T459"/>
       <c r="U459"/>
-      <c r="V459"/>
+      <c r="V459" s="21"/>
     </row>
     <row r="460" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
@@ -26166,7 +26409,7 @@
       <c r="S460"/>
       <c r="T460"/>
       <c r="U460"/>
-      <c r="V460"/>
+      <c r="V460" s="21"/>
     </row>
     <row r="461" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
@@ -26224,7 +26467,7 @@
       <c r="S461"/>
       <c r="T461"/>
       <c r="U461"/>
-      <c r="V461"/>
+      <c r="V461" s="21"/>
     </row>
     <row r="462" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
@@ -26282,7 +26525,7 @@
       <c r="S462"/>
       <c r="T462"/>
       <c r="U462"/>
-      <c r="V462"/>
+      <c r="V462" s="21"/>
     </row>
     <row r="463" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
@@ -26340,7 +26583,7 @@
       <c r="S463"/>
       <c r="T463"/>
       <c r="U463"/>
-      <c r="V463"/>
+      <c r="V463" s="21"/>
     </row>
     <row r="464" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
@@ -26398,9 +26641,9 @@
       <c r="S464"/>
       <c r="T464"/>
       <c r="U464"/>
-      <c r="V464"/>
-    </row>
-    <row r="465" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V464" s="21"/>
+    </row>
+    <row r="465" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>33</v>
       </c>
@@ -26456,9 +26699,9 @@
       <c r="S465"/>
       <c r="T465"/>
       <c r="U465"/>
-      <c r="V465"/>
-    </row>
-    <row r="466" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V465" s="21"/>
+    </row>
+    <row r="466" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>33</v>
       </c>
@@ -26514,9 +26757,9 @@
       <c r="S466"/>
       <c r="T466"/>
       <c r="U466"/>
-      <c r="V466"/>
-    </row>
-    <row r="467" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V466" s="21"/>
+    </row>
+    <row r="467" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>33</v>
       </c>
@@ -26572,9 +26815,9 @@
       <c r="S467"/>
       <c r="T467"/>
       <c r="U467"/>
-      <c r="V467"/>
-    </row>
-    <row r="468" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V467" s="21"/>
+    </row>
+    <row r="468" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A468" s="1" t="s">
         <v>0</v>
       </c>
@@ -26611,7 +26854,7 @@
       <c r="S468"/>
       <c r="T468"/>
     </row>
-    <row r="469" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A469" s="1" t="s">
         <v>0</v>
       </c>
@@ -26646,7 +26889,7 @@
       <c r="S469"/>
       <c r="T469"/>
     </row>
-    <row r="470" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A470" s="1" t="s">
         <v>0</v>
       </c>
@@ -26683,7 +26926,7 @@
       <c r="S470"/>
       <c r="T470"/>
     </row>
-    <row r="471" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A471" s="1" t="s">
         <v>0</v>
       </c>
@@ -26720,7 +26963,7 @@
       <c r="S471"/>
       <c r="T471"/>
     </row>
-    <row r="472" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A472" s="1" t="s">
         <v>0</v>
       </c>
@@ -26757,7 +27000,7 @@
       <c r="S472"/>
       <c r="T472"/>
     </row>
-    <row r="473" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A473" s="1" t="s">
         <v>0</v>
       </c>
@@ -26794,7 +27037,7 @@
       <c r="S473"/>
       <c r="T473"/>
     </row>
-    <row r="474" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A474" s="1" t="s">
         <v>0</v>
       </c>
@@ -26829,7 +27072,7 @@
       <c r="S474"/>
       <c r="T474"/>
     </row>
-    <row r="475" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A475" s="1" t="s">
         <v>0</v>
       </c>
@@ -26866,7 +27109,7 @@
       <c r="S475"/>
       <c r="T475"/>
     </row>
-    <row r="476" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A476" s="1" t="s">
         <v>0</v>
       </c>
@@ -26903,7 +27146,7 @@
       <c r="S476"/>
       <c r="T476"/>
     </row>
-    <row r="477" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A477" s="1" t="s">
         <v>0</v>
       </c>
@@ -26940,86 +27183,94 @@
       <c r="S477"/>
       <c r="T477"/>
     </row>
-    <row r="479" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A479" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B479" s="14"/>
-      <c r="C479" s="15" t="s">
+    <row r="479" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A479" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B479" s="12"/>
+      <c r="C479" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="D479" s="15">
+      <c r="D479" s="13">
         <v>226</v>
       </c>
-      <c r="E479" s="15">
+      <c r="E479" s="13">
         <v>255</v>
       </c>
-      <c r="F479" s="15" t="s">
+      <c r="F479" s="13" t="s">
         <v>510</v>
       </c>
-      <c r="G479" s="15">
+      <c r="G479" s="13">
         <v>152</v>
       </c>
-      <c r="H479" s="15">
+      <c r="H479" s="13">
         <v>181</v>
       </c>
-      <c r="I479" s="15">
+      <c r="I479" s="13">
         <v>30</v>
       </c>
-      <c r="J479" s="14"/>
-      <c r="K479" s="14"/>
-      <c r="L479" s="14"/>
-      <c r="M479" s="14"/>
-      <c r="N479" s="14"/>
-      <c r="O479" s="14"/>
-      <c r="P479" s="14"/>
-      <c r="Q479" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="R479" s="15" t="s">
+      <c r="J479" s="12"/>
+      <c r="K479" s="12"/>
+      <c r="L479" s="12"/>
+      <c r="M479" s="12"/>
+      <c r="N479" s="12"/>
+      <c r="O479" s="12"/>
+      <c r="P479" s="12"/>
+      <c r="Q479" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="R479" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="U479" s="14"/>
-      <c r="V479" s="14" t="s">
+      <c r="U479" s="12"/>
+      <c r="V479" s="22" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="480" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A480" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C480" s="15" t="s">
+      <c r="W479" s="23"/>
+      <c r="X479" s="23"/>
+      <c r="Y479" s="23"/>
+      <c r="Z479" s="23"/>
+    </row>
+    <row r="480" spans="1:26" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A480" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C480" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="D480" s="15">
+      <c r="D480" s="13">
         <v>7</v>
       </c>
-      <c r="E480" s="15">
+      <c r="E480" s="13">
         <v>18</v>
       </c>
-      <c r="F480" s="15" t="s">
+      <c r="F480" s="13" t="s">
         <v>511</v>
       </c>
-      <c r="G480" s="15">
+      <c r="G480" s="13">
         <v>17</v>
       </c>
-      <c r="H480" s="15">
+      <c r="H480" s="13">
         <v>28</v>
       </c>
-      <c r="I480" s="15">
+      <c r="I480" s="13">
         <v>12</v>
       </c>
-      <c r="Q480" s="15" t="s">
+      <c r="Q480" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="R480" s="15" t="s">
+      <c r="R480" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="S480" s="15"/>
-      <c r="T480" s="15"/>
-      <c r="V480" s="14" t="s">
+      <c r="S480" s="13"/>
+      <c r="T480" s="13"/>
+      <c r="V480" s="22" t="s">
         <v>773</v>
       </c>
+      <c r="W480" s="22"/>
+      <c r="X480" s="22"/>
+      <c r="Y480" s="22"/>
+      <c r="Z480" s="22"/>
     </row>
   </sheetData>
   <sortState ref="A85:V477">
@@ -27051,6 +27302,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -27065,7 +27317,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="105.6640625" customWidth="1"/>
-    <col min="8" max="8" width="135.33203125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="135.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.2">
@@ -27976,7 +28228,7 @@
       <c r="G20" s="5">
         <v>41416</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="6" t="s">
         <v>310</v>
       </c>
       <c r="I20" s="1"/>
@@ -29531,7 +29783,7 @@
       <c r="A1" t="s">
         <v>746</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>765</v>
       </c>
       <c r="C1">
@@ -29597,7 +29849,7 @@
       <c r="A7" t="s">
         <v>745</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>765</v>
       </c>
       <c r="C7">
@@ -29608,7 +29860,7 @@
       <c r="A8" t="s">
         <v>747</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>766</v>
       </c>
       <c r="C8">
@@ -29641,7 +29893,7 @@
       <c r="A11" t="s">
         <v>754</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>765</v>
       </c>
       <c r="C11">
@@ -29652,7 +29904,7 @@
       <c r="A12" t="s">
         <v>756</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="10" t="s">
         <v>765</v>
       </c>
       <c r="C12">
@@ -29696,7 +29948,7 @@
       <c r="A16" t="s">
         <v>755</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="10" t="s">
         <v>766</v>
       </c>
       <c r="C16">
@@ -29729,7 +29981,7 @@
       <c r="A19" t="s">
         <v>764</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="11" t="s">
         <v>771</v>
       </c>
       <c r="C19">
@@ -29767,7 +30019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
